--- a/academias/Química - Estadisticos 2020.xlsx
+++ b/academias/Química - Estadisticos 2020.xlsx
@@ -455,6 +455,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -891,6 +892,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1294,6 +1296,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Química - Estadisticos 2020.xlsx
+++ b/academias/Química - Estadisticos 2020.xlsx
@@ -519,13 +519,13 @@
         <v>47.22</v>
       </c>
       <c r="I2">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -542,25 +542,25 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>41.94</v>
+        <v>74.19</v>
       </c>
       <c r="H3">
-        <v>58.06</v>
+        <v>25.81</v>
       </c>
       <c r="I3">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>58.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -589,13 +589,13 @@
         <v>14.29</v>
       </c>
       <c r="I4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -612,25 +612,25 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -659,13 +659,13 @@
         <v>30.43</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -944,22 +944,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>38.89</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>61.11</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -976,22 +979,25 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>32.26</v>
+      </c>
+      <c r="I3">
+        <v>7.3</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1008,22 +1014,25 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1040,22 +1049,25 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>7.3</v>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1072,22 +1084,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>56.52</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>43.48</v>
+      </c>
+      <c r="I6">
+        <v>5.8</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1348,25 +1363,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>52.78</v>
+        <v>38.89</v>
       </c>
       <c r="H2">
-        <v>47.22</v>
+        <v>61.11</v>
       </c>
       <c r="I2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1383,25 +1398,25 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>41.94</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H3">
-        <v>58.06</v>
+        <v>32.26</v>
       </c>
       <c r="I3">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>58.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1418,25 +1433,25 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>85.70999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>14.29</v>
+        <v>33.33</v>
       </c>
       <c r="I4">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1453,25 +1468,25 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1488,25 +1503,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>69.56999999999999</v>
+        <v>56.52</v>
       </c>
       <c r="H6">
-        <v>30.43</v>
+        <v>43.48</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">

--- a/academias/Química - Estadisticos 2020.xlsx
+++ b/academias/Química - Estadisticos 2020.xlsx
@@ -752,25 +752,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1119,22 +1119,25 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>35.9</v>
+      </c>
+      <c r="I7">
+        <v>7.2</v>
       </c>
       <c r="J7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1151,22 +1154,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>17.07</v>
+      </c>
+      <c r="I8">
+        <v>8.199999999999999</v>
       </c>
       <c r="J8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1183,22 +1189,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>7.6</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1215,22 +1224,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>76.92</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>23.08</v>
+      </c>
+      <c r="I10">
+        <v>7.6</v>
       </c>
       <c r="J10">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1247,22 +1259,25 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>7.6</v>
       </c>
       <c r="J11">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1279,22 +1294,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>30.56</v>
+      </c>
+      <c r="I12">
+        <v>7.6</v>
       </c>
       <c r="J12">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>30.56</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1603,7 @@
         <v>7.32</v>
       </c>
       <c r="I8">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1608,25 +1626,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>7.9</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1655,7 +1673,7 @@
         <v>12.82</v>
       </c>
       <c r="I10">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1725,7 +1743,7 @@
         <v>19.44</v>
       </c>
       <c r="I12">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="J12">
         <v>7</v>
